--- a/backend/enquiries.xlsx
+++ b/backend/enquiries.xlsx
@@ -3,9 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
-  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Enquiries" state="visible" r:id="rId4"/>
   </sheets>
@@ -14,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>Customer ID</t>
   </si>
@@ -100,212 +97,176 @@
     <t>Updated At</t>
   </si>
   <si>
-    <t>"697c3346be4919802c012d73"</t>
-  </si>
-  <si>
-    <t>"697c4f6611eea96f47b7de78"</t>
+    <t>697c8ff55f9fd1bcde38eeb4</t>
+  </si>
+  <si>
+    <t>697c905d5f9fd1bcde38eec0</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>7548853614</t>
+  </si>
+  <si>
+    <t>pgayathri488@gmail.com</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>New Solar Power Plan Installation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Off-Grid</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>2 KW</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2026-01-31T16:09:00.000Z</t>
+  </si>
+  <si>
+    <t>13.02631, 80.23257</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>2026-01-30T11:05:01.150Z</t>
+  </si>
+  <si>
+    <t>2026-01-30T11:05:01.153Z</t>
+  </si>
+  <si>
+    <t>697c90205f9fd1bcde38eeb9</t>
+  </si>
+  <si>
+    <t>697c90e25f9fd1bcde38eec6</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>9943560779</t>
+  </si>
+  <si>
+    <t>prakash.das@example.com</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Solar Power Plan Service</t>
+  </si>
+  <si>
+    <t>Module Mounting Structure</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>1 KW</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>2026-02-01T16:11:00.000Z</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2026-01-30T11:07:14.513Z</t>
+  </si>
+  <si>
+    <t>2026-01-30T11:07:14.515Z</t>
+  </si>
+  <si>
+    <t>697c91455f9fd1bcde38eed3</t>
   </si>
   <si>
     <t>Gayathri</t>
   </si>
   <si>
-    <t>7548853614</t>
-  </si>
-  <si>
-    <t>prakash.das@example.com</t>
+    <t>Operation &amp; Maintanence Service</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>5 KW</t>
+  </si>
+  <si>
+    <t>2026-01-30T11:08:53.659Z</t>
+  </si>
+  <si>
+    <t>2026-01-30T11:08:53.661Z</t>
+  </si>
+  <si>
+    <t>697c9c0c3ccb2bba6be43c49</t>
+  </si>
+  <si>
+    <t>697d8b4b112570ebb911d08a</t>
+  </si>
+  <si>
+    <t>Solar Power Plant Service</t>
+  </si>
+  <si>
+    <t>DB Box</t>
   </si>
   <si>
     <t>kk</t>
   </si>
   <si>
-    <t>New Solar Power Plan Installation</t>
-  </si>
-  <si>
-    <t>Off-Grid</t>
-  </si>
-  <si>
-    <t>commercial</t>
-  </si>
-  <si>
-    <t>8 KW</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/dwroozttb/image/upload/v1769754468/enquiries/tzrtbcicmfgoijao8104.jpg</t>
-  </si>
-  <si>
-    <t>hg</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>13.026394039789455, 80.23262930293134</t>
-  </si>
-  <si>
-    <t>Assigned</t>
-  </si>
-  <si>
-    <t>"697c3713be4919802c012d94"</t>
-  </si>
-  <si>
-    <t>697c3346be4919802c012d73</t>
-  </si>
-  <si>
-    <t>697c545ba0ea512198e68860</t>
-  </si>
-  <si>
-    <t>pgayathri488@gmail.com</t>
-  </si>
-  <si>
-    <t>jj</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>6 KW</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/dwroozttb/image/upload/v1769755738/enquiries/z4quogeetmerzp9sp1ps.jpg</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>13.02641125, 80.23264700000001</t>
-  </si>
-  <si>
-    <t>697c3713be4919802c012d94</t>
-  </si>
-  <si>
-    <t>2026-02-04T06:48:56.825Z</t>
-  </si>
-  <si>
-    <t>2026-01-30T06:48:59.707Z</t>
-  </si>
-  <si>
-    <t>2026-01-30T06:48:59.734Z</t>
-  </si>
-  <si>
-    <t>697c548ba0ea512198e6886a</t>
-  </si>
-  <si>
-    <t>9943560779</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>Solar Power Plan Service</t>
-  </si>
-  <si>
-    <t>DB Box</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>7 KW</t>
-  </si>
-  <si>
-    <t>Afternoon</t>
-  </si>
-  <si>
-    <t>2026-01-30T06:54:00.000Z</t>
-  </si>
-  <si>
-    <t>13.026395499999998, 80.23263033333333</t>
-  </si>
-  <si>
-    <t>697c3749be4919802c012d98</t>
-  </si>
-  <si>
-    <t>2026-02-04T06:49:47.558Z</t>
-  </si>
-  <si>
-    <t>2026-01-30T06:49:47.558Z</t>
-  </si>
-  <si>
-    <t>2026-01-30T06:49:47.560Z</t>
-  </si>
-  <si>
-    <t>697c561ba0ea512198e68878</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>2 KW</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/dwroozttb/image/upload/v1769756186/enquiries/lofp1x6rou2kkd5lmb0f.jpg</t>
-  </si>
-  <si>
-    <t>2026-02-07T12:01:00.000Z</t>
+    <t>https://res.cloudinary.com/dwroozttb/image/upload/v1769835336/enquiries/es7ucxqzj7dw5efbqd70.jpg</t>
+  </si>
+  <si>
+    <t>2026-02-07T10:00:00.000Z</t>
   </si>
   <si>
     <t>13.02635025, 80.2325895</t>
   </si>
   <si>
-    <t>2026-02-04T06:56:25.871Z</t>
-  </si>
-  <si>
-    <t>2026-01-30T06:56:27.756Z</t>
-  </si>
-  <si>
-    <t>2026-01-30T06:56:27.757Z</t>
-  </si>
-  <si>
-    <t>697c56dfa0ea512198e6888f</t>
-  </si>
-  <si>
-    <t>Operation &amp; Maintanence Service</t>
-  </si>
-  <si>
-    <t>4 KW</t>
-  </si>
-  <si>
-    <t>13.026478999999998, 80.2326965</t>
-  </si>
-  <si>
-    <t>2026-02-04T06:59:43.856Z</t>
-  </si>
-  <si>
-    <t>2026-01-30T06:59:43.856Z</t>
-  </si>
-  <si>
-    <t>2026-01-30T06:59:43.858Z</t>
+    <t>2026-01-31T04:55:39.028Z</t>
+  </si>
+  <si>
+    <t>2026-01-31T04:55:39.046Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,7 +291,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,19 +631,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="29" customWidth="1"/>
+    <col min="1" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
@@ -694,96 +658,97 @@
     <col min="18" max="18" width="27" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="22" customWidth="1"/>
-    <col min="22" max="22" width="40" customWidth="1"/>
+    <col min="21" max="21" width="27" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="29" customWidth="1"/>
-    <col min="25" max="28" width="58" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="26" max="28" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -809,31 +774,46 @@
       <c r="G2" t="s">
         <v>34</v>
       </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
       </c>
       <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
       <c r="V2" t="s">
@@ -843,199 +823,199 @@
         <v>45</v>
       </c>
       <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="1">
-        <v>46057.26930672454</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>46052.26932896991</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>46052.26932918982</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>46052.26932918982</v>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="W3" t="s">
         <v>45</v>
       </c>
       <c r="X3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="Z3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>65</v>
       </c>
       <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="V4" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
         <v>45</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Z4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AA4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AB4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1044,162 +1024,76 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" t="s">
         <v>77</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R5" t="s">
-        <v>81</v>
-      </c>
-      <c r="S5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" t="s">
-        <v>82</v>
       </c>
       <c r="W5" t="s">
         <v>45</v>
       </c>
       <c r="X5" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="Z5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" t="s">
-        <v>89</v>
-      </c>
-      <c r="W6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/backend/enquiries.xlsx
+++ b/backend/enquiries.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="147">
   <si>
     <t>Customer ID</t>
   </si>
@@ -251,6 +251,207 @@
   </si>
   <si>
     <t>2026-01-31T04:55:39.046Z</t>
+  </si>
+  <si>
+    <t>697dc8bfd55c2a7e4e1f68e5</t>
+  </si>
+  <si>
+    <t>6 KW</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwroozttb/image/upload/v1769851069/enquiries/pu9js7k5fq7s0pyvthat.png</t>
+  </si>
+  <si>
+    <t>2026-01-01T11:19:00.000Z</t>
+  </si>
+  <si>
+    <t>13.026395499999998, 80.23263033333333</t>
+  </si>
+  <si>
+    <t>2026-01-31T09:17:51.668Z</t>
+  </si>
+  <si>
+    <t>2026-01-31T09:17:51.692Z</t>
+  </si>
+  <si>
+    <t>697d9e6d26748d8d09e92db9</t>
+  </si>
+  <si>
+    <t>697dd92b93f8349d00e66cf7</t>
+  </si>
+  <si>
+    <t>Test Customer</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>test@example.com</t>
+  </si>
+  <si>
+    <t>123, Main Street, Chennai</t>
+  </si>
+  <si>
+    <t>New Solar Power Plant Installation</t>
+  </si>
+  <si>
+    <t>Solar Panel</t>
+  </si>
+  <si>
+    <t>On-Grid</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>EB123456</t>
+  </si>
+  <si>
+    <t>rcc</t>
+  </si>
+  <si>
+    <t>1000 sq.ft</t>
+  </si>
+  <si>
+    <t>Test issue description</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>2026-02-02T10:00:00.000Z</t>
+  </si>
+  <si>
+    <t>Please contact me for details</t>
+  </si>
+  <si>
+    <t>2026-02-03T14:00:00.000Z</t>
+  </si>
+  <si>
+    <t>12.9716,77.5946</t>
+  </si>
+  <si>
+    <t>2026-01-31T10:27:55.735Z</t>
+  </si>
+  <si>
+    <t>2026-01-31T10:27:55.752Z</t>
+  </si>
+  <si>
+    <t>697dedefc3771d5fd85e3b29</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>,,</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwroozttb/image/upload/v1769860590/enquiries/iag39bxfsn3awmjd19dd.png</t>
+  </si>
+  <si>
+    <t>2026-01-13T17:01:00.000Z</t>
+  </si>
+  <si>
+    <t>2026-01-31T11:56:31.471Z</t>
+  </si>
+  <si>
+    <t>2026-01-31T11:56:31.477Z</t>
+  </si>
+  <si>
+    <t>698037aadcc647d5344ae00a</t>
+  </si>
+  <si>
+    <t>aroganamtech@gmail.com</t>
+  </si>
+  <si>
+    <t>13.026480500000002, 80.23269649999999</t>
+  </si>
+  <si>
+    <t>2026-02-02T05:35:38.171Z</t>
+  </si>
+  <si>
+    <t>2026-02-02T05:35:38.190Z</t>
+  </si>
+  <si>
+    <t>698039dfdcc647d5344ae035</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwroozttb/image/upload/v1770011100/enquiries/vmztxsulnazznd099t9k.png</t>
+  </si>
+  <si>
+    <t>2026-02-06T08:47:00.000Z</t>
+  </si>
+  <si>
+    <t>2026-02-02T05:45:03.829Z</t>
+  </si>
+  <si>
+    <t>2026-02-02T05:45:03.831Z</t>
+  </si>
+  <si>
+    <t>69803a51dcc647d5344ae040</t>
+  </si>
+  <si>
+    <t>9878786765</t>
+  </si>
+  <si>
+    <t>7 KW</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwroozttb/image/upload/v1770011215/enquiries/twquxzq2muwhr9xmt9kb.png</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>2026-02-12T08:49:00.000Z</t>
+  </si>
+  <si>
+    <t>13.0875, 80.2047</t>
+  </si>
+  <si>
+    <t>2026-02-02T05:46:57.666Z</t>
+  </si>
+  <si>
+    <t>2026-02-02T05:46:57.667Z</t>
+  </si>
+  <si>
+    <t>69808a29c627642e859ee6fb</t>
+  </si>
+  <si>
+    <t>69808a6ac627642e859ee70c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>3 KW</t>
+  </si>
+  <si>
+    <t>jh677</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>13.02635075, 80.2325895</t>
+  </si>
+  <si>
+    <t>2026-02-02T11:28:42.730Z</t>
+  </si>
+  <si>
+    <t>2026-02-02T11:28:42.732Z</t>
   </si>
 </sst>
 </file>
@@ -631,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -641,25 +842,25 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
     <col min="16" max="16" width="70" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
     <col min="18" max="18" width="27" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="19" max="19" width="32" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
     <col min="21" max="21" width="27" customWidth="1"/>
-    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="22" max="22" width="40" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
     <col min="25" max="25" width="12" customWidth="1"/>
@@ -1096,6 +1297,608 @@
         <v>79</v>
       </c>
     </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" t="s">
+        <v>84</v>
+      </c>
+      <c r="W6" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" t="s">
+        <v>104</v>
+      </c>
+      <c r="V7" t="s">
+        <v>105</v>
+      </c>
+      <c r="W7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" t="s">
+        <v>117</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" t="s">
+        <v>125</v>
+      </c>
+      <c r="V10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W10" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>132</v>
+      </c>
+      <c r="R11" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" t="s">
+        <v>134</v>
+      </c>
+      <c r="W11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" t="s">
+        <v>144</v>
+      </c>
+      <c r="W12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/enquiries.xlsx
+++ b/backend/enquiries.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="180">
   <si>
     <t>Customer ID</t>
   </si>
@@ -452,6 +452,105 @@
   </si>
   <si>
     <t>2026-02-02T11:28:42.732Z</t>
+  </si>
+  <si>
+    <t>698098daa358f022240a9385</t>
+  </si>
+  <si>
+    <t>69809e85a358f022240a93d2</t>
+  </si>
+  <si>
+    <t>prakash.das@example.coma</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwroozttb/image/upload/v1770036869/enquiries/k7rptkfgksz37nnjzv6t.png</t>
+  </si>
+  <si>
+    <t>2026-02-05T15:56:00.000Z</t>
+  </si>
+  <si>
+    <t>13.026350676470589, 80.23258957843136</t>
+  </si>
+  <si>
+    <t>2026-02-02T12:54:29.879Z</t>
+  </si>
+  <si>
+    <t>2026-02-02T12:54:29.881Z</t>
+  </si>
+  <si>
+    <t>6981dc2508a471862cd48ded</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>8 KW</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:29:41.572Z</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:29:41.622Z</t>
+  </si>
+  <si>
+    <t>6981dc7608a471862cd48df8</t>
+  </si>
+  <si>
+    <t>2026-02-19T15:33:00.000Z</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:31:02.461Z</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:31:02.463Z</t>
+  </si>
+  <si>
+    <t>69808a29c627642e859ee703</t>
+  </si>
+  <si>
+    <t>6981de6108a471862cd48e01</t>
+  </si>
+  <si>
+    <t>2026-01-29T14:41:00.000Z</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:39:13.025Z</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:39:13.027Z</t>
+  </si>
+  <si>
+    <t>69808a29c627642e859ee6ff</t>
+  </si>
+  <si>
+    <t>6981e02408a471862cd48e04</t>
+  </si>
+  <si>
+    <t>admin@4msolar.com</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dwroozttb/image/upload/v1770119203/enquiries/ivot3e7ulwc1ttgcxtye.png</t>
+  </si>
+  <si>
+    <t>2026-02-13T14:49:00.000Z</t>
+  </si>
+  <si>
+    <t>13.02644190131579, 80.23266241447367</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:46:44.208Z</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:46:44.211Z</t>
   </si>
 </sst>
 </file>
@@ -832,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -844,7 +943,7 @@
     <col min="1" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
@@ -1899,6 +1998,436 @@
         <v>146</v>
       </c>
     </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" t="s">
+        <v>152</v>
+      </c>
+      <c r="S13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" t="s">
+        <v>153</v>
+      </c>
+      <c r="W13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" t="s">
+        <v>144</v>
+      </c>
+      <c r="W14" t="s">
+        <v>45</v>
+      </c>
+      <c r="X14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" t="s">
+        <v>164</v>
+      </c>
+      <c r="S15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" t="s">
+        <v>134</v>
+      </c>
+      <c r="W15" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" t="s">
+        <v>169</v>
+      </c>
+      <c r="S16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" t="s">
+        <v>153</v>
+      </c>
+      <c r="W16" t="s">
+        <v>45</v>
+      </c>
+      <c r="X16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" t="s">
+        <v>176</v>
+      </c>
+      <c r="S17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" t="s">
+        <v>177</v>
+      </c>
+      <c r="W17" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
